--- a/TIMES-NZ/VT_NI_OTH_V4.xlsx
+++ b/TIMES-NZ/VT_NI_OTH_V4.xlsx
@@ -28595,52 +28595,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COMCOA</t>
+          <t>RESCOA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COMNGA</t>
+          <t>RESNGA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COMLPG</t>
+          <t>RESLPG</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>COMDSL</t>
+          <t>RESDSL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>COMBIG</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>COMGEO</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>COMFOL</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>COMPET</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>COMWOD</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>COMPLT</t>
+          <t>RESWOD</t>
         </is>
       </c>
     </row>
@@ -28675,36 +28650,11 @@
           <t>kt/PJ</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>kt/PJ</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>kt/PJ</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>kt/PJ</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>kt/PJ</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>kt/PJ</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>COMCO2</t>
+          <t>RESCO2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -28725,16 +28675,6 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>69.69</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>72.91</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>66.58</t>
         </is>
       </c>
     </row>
@@ -28753,47 +28693,52 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AGRCOA</t>
+          <t>COMCOA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AGRDSL</t>
+          <t>COMNGA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AGRPET</t>
+          <t>COMLPG</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AGRFOL</t>
+          <t>COMDSL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AGRLPG</t>
+          <t>COMBIG</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>AGRNGA</t>
+          <t>COMGEO</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>AGRGEO</t>
+          <t>COMFOL</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>AGRWOD</t>
+          <t>COMPET</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>AGRPLT</t>
+          <t>COMWOD</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>COMPLT</t>
         </is>
       </c>
     </row>
@@ -28848,11 +28793,16 @@
           <t>kt/PJ</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>kt/PJ</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AGRCO2</t>
+          <t>COMCO2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -28862,27 +28812,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>69.69</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>72.91</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>66.58</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>72.91</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>60.43</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>53.96</t>
         </is>
       </c>
     </row>
@@ -28901,27 +28851,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RESCOA</t>
+          <t>AGRCOA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RESNGA</t>
+          <t>AGRDSL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RESLPG</t>
+          <t>AGRPET</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RESDSL</t>
+          <t>AGRFOL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>RESWOD</t>
+          <t>AGRLPG</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>AGRNGA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>AGRGEO</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>AGRWOD</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>AGRPLT</t>
         </is>
       </c>
     </row>
@@ -28956,11 +28926,31 @@
           <t>kt/PJ</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>kt/PJ</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>kt/PJ</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>kt/PJ</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>kt/PJ</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RESCO2</t>
+          <t>AGRCO2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -28970,17 +28960,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>69.69</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>53.96</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>60.43</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>69.69</t>
         </is>
       </c>
     </row>
